--- a/data/procesados/procesadosCanal/upalala.xlsx
+++ b/data/procesados/procesadosCanal/upalala.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="288">
   <si>
     <t>Identificador de URL</t>
   </si>
@@ -46,6 +46,12 @@
     <t>Descripción para SEO</t>
   </si>
   <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
     <t>SKU</t>
   </si>
   <si>
@@ -439,76 +445,79 @@
     <t>Upalala</t>
   </si>
   <si>
-    <t>545.00</t>
-  </si>
-  <si>
-    <t>338.00</t>
-  </si>
-  <si>
-    <t>211.00</t>
-  </si>
-  <si>
-    <t>558.00</t>
-  </si>
-  <si>
-    <t>286.00</t>
-  </si>
-  <si>
-    <t>2,049.00</t>
-  </si>
-  <si>
-    <t>1,239.00</t>
-  </si>
-  <si>
-    <t>1,105.00</t>
-  </si>
-  <si>
-    <t>1,309.00</t>
-  </si>
-  <si>
-    <t>1,438.00</t>
-  </si>
-  <si>
-    <t>2,120.00</t>
-  </si>
-  <si>
-    <t>1,403.00</t>
-  </si>
-  <si>
-    <t>1,905.00</t>
-  </si>
-  <si>
-    <t>1,785.00</t>
-  </si>
-  <si>
-    <t>170.00</t>
-  </si>
-  <si>
-    <t>387.00</t>
-  </si>
-  <si>
-    <t>1,565.00</t>
-  </si>
-  <si>
-    <t>384.00</t>
-  </si>
-  <si>
-    <t>2,269.00</t>
-  </si>
-  <si>
-    <t>2,155.00</t>
-  </si>
-  <si>
-    <t>1,701.00</t>
-  </si>
-  <si>
-    <t>2,581.00</t>
-  </si>
-  <si>
-    <t>2,694.00</t>
-  </si>
-  <si>
-    <t>133.00</t>
+    <t>626.00</t>
+  </si>
+  <si>
+    <t>388.00</t>
+  </si>
+  <si>
+    <t>242.00</t>
+  </si>
+  <si>
+    <t>642.00</t>
+  </si>
+  <si>
+    <t>329.00</t>
+  </si>
+  <si>
+    <t>641.00</t>
+  </si>
+  <si>
+    <t>2,356.00</t>
+  </si>
+  <si>
+    <t>1,425.00</t>
+  </si>
+  <si>
+    <t>1,270.00</t>
+  </si>
+  <si>
+    <t>1,505.00</t>
+  </si>
+  <si>
+    <t>1,654.00</t>
+  </si>
+  <si>
+    <t>2,438.00</t>
+  </si>
+  <si>
+    <t>1,614.00</t>
+  </si>
+  <si>
+    <t>2,190.00</t>
+  </si>
+  <si>
+    <t>2,052.00</t>
+  </si>
+  <si>
+    <t>196.00</t>
+  </si>
+  <si>
+    <t>445.00</t>
+  </si>
+  <si>
+    <t>1,800.00</t>
+  </si>
+  <si>
+    <t>442.00</t>
+  </si>
+  <si>
+    <t>2,609.00</t>
+  </si>
+  <si>
+    <t>2,479.00</t>
+  </si>
+  <si>
+    <t>1,957.00</t>
+  </si>
+  <si>
+    <t>2,968.00</t>
+  </si>
+  <si>
+    <t>3,098.00</t>
+  </si>
+  <si>
+    <t>153.00</t>
   </si>
   <si>
     <t>Bebés y Maternidad &gt; Kits , Bebés y Maternidad &gt; Textil y Ropa &gt; Conjuntos</t>
@@ -722,6 +731,347 @@
   </si>
   <si>
     <t>Incluye ranita, batita y gorro de algodon para bebes recien nacidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Bambi incluye un gorrito, una remera y un pantalón. Este conjunto es ideal para los primeros meses de vida del bebé y funciona como primera capa de piel para las épocas de frío o como conjunto completo para el verano. Viene presentado en una bolsa de regalo. \nLos productos textiles son realizados 100% de algodón. Color del pantalón: Rojo o Verde. Color del gorro: Rojo o Verde. Color de la remera: Blanca con vivos Rojos o Verdes.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;El Set Bambi incluye un gorrito, una remera y un pantal&amp;oacute;n. Este conjunto es ideal para los primeros meses de vida del beb&amp;eacute; y funciona como primera capa de piel para las &amp;eacute;pocas de fr&amp;iacute;o o como conjunto completo para el verano. Viene presentado en una bolsa de regalo.&lt;br /&gt;
+Los productos textiles son realizados 100% de algod&amp;oacute;n. &lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Bambi incluye un gorrito, una remera y un pantalón. Este conjunto es ideal para los primeros meses de vida del bebé y funciona como primera capa de piel para las épocas de frío o como conjunto completo para el verano. Viene presentado en una bolsa de regalo. \nLos productos textiles son realizados 100% de algodón. Color del pantalón: Rojo o Verde. Color del gorro: Rojo o Verde. Color de la remera: Blanca con vivos Rojos o Verdes.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;Color del pantal&amp;oacute;n: Rojo o Verde. Color del gorro: Rojo o Verde. &lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Bambi incluye un gorrito, una remera y un pantalón. Este conjunto es ideal para los primeros meses de vida del bebé y funciona como primera capa de piel para las épocas de frío o como conjunto completo para el verano. Viene presentado en una bolsa de regalo. \nLos productos textiles son realizados 100% de algodón. Color del pantalón: Rojo o Verde. Color del gorro: Rojo o Verde. Color de la remera: Blanca con vivos Rojos o Verdes.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;Color de la remera: Blanca con vivos Rojos o Verdes.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p dir="ltr"&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1021,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;Fragancia delicada y refrescante que respeta la sensibilidad del olfato del bebé. Está especialmente desarrollada para perfumar suavemente la piel de bebés y niños. Su aroma clásico brinda un exquisito resultado final. Con pico vertedor.\no Modo de uso: Luego de la higiene diaria corporal, aplicar sobre brazos y cuello. \no Condiciones de Almacenamiento: Mantenga el producto en envase cerrado, tapado y en posición vertical en lugar fresco, a temperatura ambiente, no exponerse a los rayos del sol.\no Precauciones: Uso externo. Evitar el contacto con los ojos. No ingerir. Manténgase fuera del alcance de los niños.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;Fragancia delicada y refrescante que respeta la sensibilidad del olfato del beb&amp;eacute;. Est&amp;aacute; especialmente desarrollada para perfumar suavemente la piel de beb&amp;eacute;s y ni&amp;ntilde;os. Su aroma cl&amp;aacute;sico brinda un exquisito resultado final. Con pico vertedor.&lt;br /&gt;
+&amp;bull; Modo de uso: Luego de la higiene diaria corporal, aplicar sobre brazos y cuello.&lt;br /&gt;
+&amp;bull; Condiciones de Almacenamiento: Mantenga el producto en envase cerrado, tapado y en posici&amp;oacute;n vertical en lugar fresco, a temperatura ambiente, no exponerse a los rayos del sol.&lt;br /&gt;
+&amp;bull; Precauciones: Uso externo. Evitar el contacto con los ojos. No ingerir. Mant&amp;eacute;ngase fuera del alcance de los ni&amp;ntilde;os.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p dir="ltr"&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1021,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;Shampoo capilar de uso diario apto para el cabello del bebé. Otorga limpieza, agradable aroma y humectación a su cabello.\no Modo de uso:  Aplicar una pequeña cantidad de producto en la palma de la mano húmeda o mojada. Frotar hasta que se produzca una suave espuma y masajear suavemente en el cuero cabelludo del bebé. Luego enjuagar. Repetir si es necesario.\no Condiciones de Almacenamiento: Mantenga el producto en envase cerrado, tapado y en posición vertical en lugar fresco, a temperatura ambiente, no exponerse a los rayos del sol. \no Precauciones: Si bien su fórmula se encuentra diseñada para no molestar en caso de ingresar el ojo del bebé, en caso de presentar molestias, enjuagar con abundante agua. En caso de ingestión accidental, no induzca el vómito y consulte a su médico.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;Shampoo capilar de Upalala es de uso diario apto para el cabello del beb&amp;eacute;. Otorga limpieza, agradable aroma y humectaci&amp;oacute;n a su cabello.&lt;br /&gt;
+&amp;bull; Modo de uso: Aplicar una peque&amp;ntilde;a cantidad de producto en la palma de la mano h&amp;uacute;meda o mojada. Frotar hasta que se produzca una suave espuma y masajear suavemente en el cuero cabelludo del beb&amp;eacute;. Luego enjuagar. Repetir si es necesario.&lt;br /&gt;
+&amp;bull; Condiciones de Almacenamiento: Mantenga el producto en envase cerrado, tapado y en posici&amp;oacute;n vertical en lugar fresco, a temperatura ambiente, no exponerse a los rayos del sol.&lt;br /&gt;
+&amp;bull; Precauciones: Si bien su f&amp;oacute;rmula se encuentra dise&amp;ntilde;ada para no molestar en caso de ingresar el ojo del beb&amp;eacute;, en caso de presentar molestias, enjuagar con abundante agua. En caso de ingesti&amp;oacute;n accidental, no induzca el v&amp;oacute;mito y consulte a su m&amp;eacute;dico.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p dir="ltr"&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;Crema de enjuague capilar Upalala de uso diario apto para el cabello del bebé acondiciona el cabello dejándolo con brillo, cuerpo y dócil para ser peinado.\no Modo de uso:  Aplicar una pequeña cantidad de producto, luego del Shampoo Upalala, en la palma de la mano húmeda o mojada. Frotar hasta que se produzca una suave espuma y masajear suavemente en las puntas del cabello del bebé. Luego enjuagar. Repetir si es necesario.\no Condiciones de Almacenamiento: Mantenga el producto en envase cerrado, tapado y en posición vertical en lugar fresco, a temperatura ambiente, no exponerse a los rayos del sol. \no Precauciones: Si bien su fórmula se encuentra diseñada para no molestar en caso de ingresar el ojo del bebé, en caso de presentar molestias, enjuagar con abundante agua. En caso de ingestión accidental, no induzca el vómito y consulte a su médico.\n&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;Crema de enjuague capilar Upalala de uso diario apto para el cabello del beb&amp;eacute; acondiciona el cabello dej&amp;aacute;ndolo con brillo, cuerpo y d&amp;oacute;cil para ser peinado.&lt;br /&gt;
+&amp;bull; Modo de uso: Aplicar una peque&amp;ntilde;a cantidad de producto, luego del Shampoo Upalala, en la palma de la mano h&amp;uacute;meda o mojada. Frotar hasta que se produzca una suave espuma y masajear suavemente en las puntas del cabello del beb&amp;eacute;. Luego enjuagar. Repetir si es necesario.&lt;br /&gt;
+&amp;bull; Condiciones de Almacenamiento: Mantenga el producto en envase cerrado, tapado y en posici&amp;oacute;n vertical en lugar fresco, a temperatura ambiente, no exponerse a los rayos del sol.&lt;br /&gt;
+&amp;bull; Precauciones: Si bien su f&amp;oacute;rmula se encuentra dise&amp;ntilde;ada para no molestar en caso de ingresar el ojo del beb&amp;eacute;, en caso de presentar molestias, enjuagar con abundante agua. En caso de ingesti&amp;oacute;n accidental, no induzca el v&amp;oacute;mito y consulte a su m&amp;eacute;dico.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p dir="ltr" role="presentation" style="list-style-type: decimal; font-size: 11pt; font-family: Arial; color: rgb(0, 0, 0); background-color: transparent; font-variant-numeric: normal; font-variant-east-asian: normal; vertical-align: baseline; white-space: pre;line-height:1.38;margin-top:0pt;margin-bottom:0pt;"&gt;&lt;span id="docs-internal-guid-7f048bca-7fff-11d9-b0ac-15c9aad9a6ef"&gt;&lt;span style="font-size: 11pt; background-color: transparent; font-variant-numeric: normal; font-variant-east-asian: normal; vertical-align: baseline; white-space: pre-wrap;"&gt;Talco 200 gr.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p dir="ltr" role="presentation" style="list-style-type: decimal; font-size: 11pt; font-family: Arial; color: rgb(0, 0, 0); background-color: transparent; font-variant-numeric: normal; font-variant-east-asian: normal; vertical-align: baseline; white-space: pre;line-height:1.38;margin-top:0pt;margin-bottom:0pt;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr" role="presentation" style="list-style-type: decimal; font-size: 11pt; font-family: Arial; color: rgb(0, 0, 0); background-color: transparent; font-variant-numeric: normal; font-variant-east-asian: normal; vertical-align: baseline; white-space: pre;line-height:1.38;margin-top:0pt;margin-bottom:0pt;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr" style="line-height:1.38;margin-top:0pt;margin-bottom:0pt;"&gt;&lt;span id="docs-internal-guid-e889cf73-7fff-6b0f-92b9-53275c24ca88"&gt;&lt;span style="font-size: 11pt; font-family: Arial; color: rgb(0, 0, 0); font-variant-numeric: normal; font-variant-east-asian: normal; vertical-align: baseline; white-space: pre-wrap;"&gt;Todos nuestros productos son hipolarg&amp;eacute;nicos&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p dir="ltr"&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1021,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El jabón en barra Upalala produce una espuma suave y cremosa. La fórmula está especialmente pensada para dejar la piel de tu bebé con sensación hidratada y humectada. Cuenta con un formato ideal para reemplazar el jabón de tocador tradicional y cumplir con las necesidades especiales del bebé. \no Modo de uso: Frotar entre las manos bajo una corriente de agua o con las manos húmedas hasta que se genere una suave espuma. Higienizar la parte del cuerpo deseada y enjuagar con abundante agua. Repetir en caso de ser necesario.\no Condiciones de Almacenamiento: Conservar fuera del agua en un lugar fresco y seco. \no Precauciones: Uso externo. No ingerir. Evitar el contacto con los ojos. Mantener alejado de niños y mascotas. Conservar a temperatura &amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;El jab&amp;oacute;n en barra Upalala produce una espuma suave y cremosa. La f&amp;oacute;rmula est&amp;aacute; especialmente pensada para dejar la piel de tu beb&amp;eacute; con sensaci&amp;oacute;n hidratada y humectada. Cuenta con un formato ideal para reemplazar el jab&amp;oacute;n de tocador tradicional y cumplir con las necesidades especiales del beb&amp;eacute;.&lt;br /&gt;
+&amp;bull; Modo de uso: Frotar entre las manos bajo una corriente de agua o con las manos h&amp;uacute;medas hasta que se genere una suave espuma. Higienizar la parte del cuerpo deseada y enjuagar con abundante agua. Repetir en caso de ser necesario.&lt;br /&gt;
+&amp;bull; Condiciones de Almacenamiento: Conservar fuera del agua en un lugar fresco y seco.&lt;br /&gt;
+&amp;bull; Precauciones: Uso externo. No ingerir. Evitar el contacto con los ojos. Mantener alejado de ni&amp;ntilde;os y mascotas. Conservar a temperatura&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p dir="ltr"&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:833,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;9&amp;quot;:0,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;Fragancia delicada y refrescante que respeta la sensibilidad del olfato del bebé. Está especialmente desarrollada para perfumar suavemente la piel de bebés y niños. Su aroma cítrico brinda un exquisito resultado final. \nCon pico vertedor. \no Modo de uso: Luego de la higiene diaria corporal, aplicar sobre brazos y cuello. \no Condiciones de Almacenamiento: Mantenga el producto en envase cerrado, tapado y en posición vertical en lugar fresco, a temperatura ambiente, no exponerse a los rayos del sol.\no Precauciones: Uso externo. Evitar el contacto con los ojos. No ingerir. Manténgase fuera del alcance de los niños.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;Fragancia delicada y refrescante que respeta la sensibilidad del olfato del beb&amp;eacute;. Est&amp;aacute; especialmente desarrollada para perfumar suavemente la piel de beb&amp;eacute;s y ni&amp;ntilde;os. Su aroma c&amp;iacute;trico brinda un exquisito resultado final.&lt;br /&gt;
+Con pico vertedor.&lt;br /&gt;
+&amp;bull; Modo de uso: Luego de la higiene diaria corporal, aplicar sobre brazos y cuello.&lt;br /&gt;
+&amp;bull; Condiciones de Almacenamiento: Mantenga el producto en envase cerrado, tapado y en posici&amp;oacute;n vertical en lugar fresco, a temperatura ambiente, no exponerse a los rayos del sol.&lt;br /&gt;
+&amp;bull; Precauciones: Uso externo. Evitar el contacto con los ojos. No ingerir. Mant&amp;eacute;ngase fuera del alcance de los ni&amp;ntilde;os.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p dir="ltr"&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1021,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El jabón líquido Upalala funciona como el complemento perfecto en la hora del baño gracias a su fórmula anti lagrimas, limpia suavemente la delicada piel de tu bebé y da como resultado extra suavidad e hidratación. No irritante.   \no Modo de uso: Verter una pequeña cantidad entre las manos y humedecer con agua hasta formar una suave espuma. Higienizar la parte del cuerpo deseada y enjuagar con abundante agua. Repetir en caso de ser necesario.\no Condiciones de Almacenamiento: Almacenar a temperatura ambiente, lejos de la luz y del calor, mantener el recipiente cerrado y fuera del alcance de los niños.\no Precauciones: Uso externo. No ingerir. En caso de ingestión consultar con el médico. En caso de contacto con los ojos enjuagar con abundante agua durante 15 minutos.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;El jab&amp;oacute;n l&amp;iacute;quido Upalala funciona como el complemento perfecto en la hora del ba&amp;ntilde;o gracias a su f&amp;oacute;rmula anti lagrimas, limpia suavemente la delicada piel de tu beb&amp;eacute; y da como resultado extra suavidad e hidrataci&amp;oacute;n. No irritante.&lt;br /&gt;
+&amp;bull; Modo de uso: Verter una peque&amp;ntilde;a cantidad entre las manos y humedecer con agua hasta formar una suave espuma. Higienizar la parte del cuerpo deseada y enjuagar con abundante agua. Repetir en caso de ser necesario.&lt;br /&gt;
+&amp;bull; Condiciones de Almacenamiento: Almacenar a temperatura ambiente, lejos de la luz y del calor, mantener el recipiente cerrado y fuera del alcance de los ni&amp;ntilde;os.&lt;br /&gt;
+&amp;bull; Precauciones: Uso externo. No ingerir. En caso de ingesti&amp;oacute;n consultar con el m&amp;eacute;dico. En caso de contacto con los ojos enjuagar con abundante agua durante 15 minutos.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p dir="ltr"&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1021,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;Las toallitas húmedas Upalala son ideales para el momento del cambio de pañal fuera y dentro de casa, aportan la limpieza y suavidad necesaria para la piel de tu bebé. Además cuentan con un cierre hermético que ayuda a mantener intacta la efectividad de sus ingredientes luego de cada uso. Te ofrecemos un paquete de cien unidades pensado para ser utilizadas en una gran cantidad de oportunidades.    \no Modo de uso: Extraer una toallita húmeda para limpiar y limpiar la zona del cuerpo del bebé deseada. Cerrar la tapa hermética para conservar la humedad de las toallitas. Deseche la toallita húmeda en el cesto de la basura. No arrojar los paños al sanitario.\no Condiciones de Almacenamiento: Mantener el producto en el empaque original, cerrado y en lugar alejado y protegido de la luz solar directa o del calor. \no Precauciones: Mantener fuera del alcance de los niños. Conservar el producto en un lugar fresco y seco. En caso de irritación suspenda su uso y consulte al médico. Solo para uso externo. No ingerir. No arrojar toallas en un servicio sanitario.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;Las toallitas h&amp;uacute;medas Upalala son ideales para el momento del cambio de pa&amp;ntilde;al fuera y dentro de casa, aportan la limpieza y suavidad necesaria para la piel de tu beb&amp;eacute;. Adem&amp;aacute;s cuentan con un cierre herm&amp;eacute;tico que ayuda a mantener intacta la efectividad de sus ingredientes luego de cada uso. Te ofrecemos un paquete de cien unidades pensado para ser utilizadas en una gran cantidad de oportunidades.&lt;br /&gt;
+&amp;bull; Modo de uso: Extraer una toallita h&amp;uacute;meda para limpiar y limpiar la zona del cuerpo del beb&amp;eacute; deseada. Cerrar la tapa herm&amp;eacute;tica para conservar la humedad de las toallitas. Deseche la toallita h&amp;uacute;meda en el cesto de la basura. No arrojar los pa&amp;ntilde;os al sanitario.&lt;br /&gt;
+&amp;bull; Condiciones de Almacenamiento: Mantener el producto en el empaque original, cerrado y en lugar alejado y protegido de la luz solar directa o del calor.&lt;br /&gt;
+&amp;bull; Precauciones: Mantener fuera del alcance de los ni&amp;ntilde;os. Conservar el producto en un lugar fresco y seco. En caso de irritaci&amp;oacute;n suspenda su uso y consulte al m&amp;eacute;dico. Solo para uso externo. No ingerir. No arrojar toallas en un servicio sanitario.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p dir="ltr"&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1021,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El perfume para ropa Upalala está pensado como el toque final del cuidado para tu bebé, que brinda un aroma suave y delicado tanto a la ropa blanca como a la vestimenta de uso diario. \no Modo de uso: Pulverice con el perfume para ropa las prendas, telas o tapizados a una distancia 25 cm. \no Condiciones de Almacenamiento:  Lugares ventilados, frescos y secos. Lejos de lugares de calor. \no Precauciones: Mantener alejado de fuentes de calor. No ingerir. Mantener lejos del alcance de los niños.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;El perfume para ropa Upalala est&amp;aacute; pensado como el toque final del cuidado para tu beb&amp;eacute;, que brinda un aroma suave y delicado tanto a la ropa blanca como a la vestimenta de uso diario.&lt;br /&gt;
+&amp;bull; Modo de uso: Pulverice con el perfume para ropa las prendas, telas o tapizados a una distancia 25 cm.&lt;br /&gt;
+&amp;bull; Condiciones de Almacenamiento: Lugares ventilados, frescos y secos. Lejos de lugares de calor.&lt;br /&gt;
+&amp;bull; Precauciones: Mantener alejado de fuentes de calor. No ingerir. Mantener lejos del alcance de los ni&amp;ntilde;os.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Set que incluye colonia, oleo calcareo, babero y 1 par de escarpines. Viene presentado en una caja de regalo.&lt;/p&gt;
+&lt;p&gt;Color y estampas de babero y escarpines sin elecci&amp;oacute;n, y puede variar el modelo.&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;Todos nuestros productos son hipolarg&amp;eacute;nicos.&amp;nbsp;&lt;/p&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;El set Jab&amp;oacute;n Oso incluye una colonia, jab&amp;oacute;n con forma de animalito y un mu&amp;ntilde;equito de tela.&lt;/p&gt;
+&lt;p&gt;El mu&amp;ntilde;eco y el jaboncito son sin elecci&amp;oacute;n.&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;Todos nuestros productos son hipolarg&amp;eacute;nicos.&amp;nbsp;&lt;/p&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;El set porta chupete incluye una colonia y un porta chupete.&amp;nbsp; &amp;nbsp;&lt;/p&gt;
+&lt;p&gt;El portachupete es sin elecci&amp;oacute;n, y puede variar el modelo.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Todos nuestros productos son hipolarg&amp;eacute;nicos.&amp;nbsp;&lt;/p&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Set de colonia, jab&amp;oacute;n y un par de pantuflas. Viene presentado en una caja de regalo.&lt;/p&gt;
+&lt;p&gt;El color de las pantuflas es sin elecci&amp;oacute;n, y puede variar el modelo.&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;Todos nuestros productos son hipolarg&amp;eacute;nicos.&amp;nbsp;&lt;/p&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;El set zoo incluye colonia, jab&amp;oacute;n y un peluchito. Viene presentado en una caja regalo.&lt;/p&gt;
+&lt;p&gt;El peluche es sin elecci&amp;oacute;n.&amp;nbsp;&amp;nbsp; &amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Todos nuestros productos son hipolarg&amp;eacute;nicos.&amp;nbsp;&lt;/p&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;span id="docs-internal-guid-0e72a144-7fff-74a9-a85d-d245010d1bb7"&gt;&lt;span style="font-size: 11pt; font-family: Arial; color: rgb(0, 0, 0); background-color: transparent; font-variant-numeric: normal; font-variant-east-asian: normal; vertical-align: baseline; white-space: pre-wrap;"&gt;Set Love Calzado (colonia, jab&amp;oacute;n bebe, calzado 1 par)&lt;/span&gt;&lt;span style="font-size: 11pt; font-family: Arial; color: rgb(0, 0, 0); background-color: transparent; font-variant-numeric: normal; font-variant-east-asian: normal; vertical-align: baseline; white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;&lt;span style="font-size: 11pt; font-family: Arial; color: rgb(0, 0, 0); background-color: transparent; font-variant-numeric: normal; font-variant-east-asian: normal; vertical-align: baseline; white-space: pre-wrap;"&gt;El calzado es sin eleccion, y puede variar el modelo. &lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p dir="ltr" style="line-height:1.38;margin-top:0pt;margin-bottom:0pt;"&gt;&lt;span id="docs-internal-guid-f4cb8a47-7fff-a302-573a-0bdb59503538"&gt;&lt;span style="font-size: 11pt; font-family: Arial; color: rgb(0, 0, 0); font-variant-numeric: normal; font-variant-east-asian: normal; vertical-align: baseline; white-space: pre-wrap;"&gt;Todos nuestros productos son hipolarg&amp;eacute;nicos.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;El set Trapito incluye una colonia, jab&amp;oacute;n plisado y un trapito de apego. Viene presentado en una caja de regalo.&lt;/p&gt;
+&lt;p&gt;El trapito de apego es sin elecci&amp;oacute;n, y puede variar el modelo.&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;Todos nuestros productos son hipolarg&amp;eacute;nicos.&amp;nbsp;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;El estuche Escarp&amp;iacute;n incluye colonia, shampoo, jab&amp;oacute;n, oleo calc&amp;aacute;reo y un par de escarpines. Viene presentado en una caja regalo.&lt;/p&gt;
+&lt;p&gt;El color de los escarpines es sin elecci&amp;oacute;n, y puede variar el modelo.&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;Todos nuestros productos son hipolarg&amp;eacute;nicos.&amp;nbsp;&lt;/p&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;La caja sorpresa incluye una colonia, shampoo y paquete de toallas h&amp;uacute;medas. Viene en una caja de cart&amp;oacute;n reutilizable. &amp;nbsp;&amp;nbsp; &amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;Todos nuestros productos son hipolarg&amp;eacute;nicos.&amp;nbsp;&lt;/p&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;El estuche babero bordado incluye colonia, oleo calc&amp;aacute;reo y babero.&lt;/p&gt;
+&lt;p&gt;El color y estampa del babero es sin elecci&amp;oacute;n, y puede variar el modelo.&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;Todos nuestros productos son hipolarg&amp;eacute;nicos.&amp;nbsp;&lt;/p&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;El estuche Rosca incluye colonia, shampoo, oleo calc&amp;aacute;reo, jab&amp;oacute;n y un peluchito rosca. Viene presentado en una caja regalo.&lt;/p&gt;
+&lt;p&gt;El peluche es sin elecci&amp;oacute;n.&amp;nbsp; Y puede variar el modelo.&lt;/p&gt;
+&lt;p dir="ltr"&gt;Todos nuestros productos son hipolarg&amp;eacute;nicos.&amp;nbsp;&lt;/p&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;span id="docs-internal-guid-9ca42f43-7fff-b5d4-0d78-21a6673a2f7a"&gt;&lt;span style="font-size: 11pt; font-family: Arial; color: rgb(0, 0, 0); background-color: transparent; font-variant-numeric: normal; font-variant-east-asian: normal; vertical-align: baseline; white-space: pre-wrap;"&gt;Estuche Animalito (colonia, oleo calc&amp;aacute;reo y peluche). El peluche es sin eleccion y puede variar el modelo. &lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr" style="line-height:1.38;margin-top:0pt;margin-bottom:0pt;"&gt;&lt;span id="docs-internal-guid-7ddcf13c-7fff-f307-1eff-876b84299b05"&gt;&lt;span style="font-size: 11pt; font-family: Arial; color: rgb(0, 0, 0); font-variant-numeric: normal; font-variant-east-asian: normal; vertical-align: baseline; white-space: pre-wrap;"&gt;Todos nuestros productos son hipolarg&amp;eacute;nicos.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Set de colonia, shampoo, toalla h&amp;uacute;meda y mu&amp;ntilde;eco en bolsa pl&amp;aacute;stica ajustable con cord&amp;oacute;n.&lt;/p&gt;
+&lt;p&gt;El mu&amp;ntilde;eco es sin elecci&amp;oacute;n.&lt;/p&gt;
+&lt;p&gt;Todos nuestros productos son hipolarg&amp;eacute;nicos.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Bolsa para regalo de cart&amp;oacute;n.&amp;nbsp;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p dir="ltr"&gt;El &amp;Oacute;leo Calc&amp;aacute;reo Upalala est&amp;aacute; especialmente pensado para evitar una de las grandes molestias del beb&amp;eacute;: la cola paspada o irritada. Se recomienda utilizarlo desde el primer d&amp;iacute;a del nacimiento del beb&amp;eacute;, aplic&amp;aacute;ndolo suavemente con la ayuda de un algod&amp;oacute;n en el momento del cambio de pa&amp;ntilde;al. Adem&amp;aacute;s de proveer una sensaci&amp;oacute;n de confort instant&amp;aacute;nea, deja una capa protectora que no permite que se genere un contacto por mayor tiempo de la suciedad del pa&amp;ntilde;al con la piel del beb&amp;eacute;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;&amp;lowast; Modo de uso: Aplicar con un algod&amp;oacute;n o disco de algod&amp;oacute;n y se retira con el mismo. No necesita enjuague ya que deja una capa protectora que contribuye a prevenir dermatitis, paspaduras e irritaciones en la zona. Importante: agitar antes de usar el producto. No tiene perfume.&lt;/p&gt;
+&lt;p dir="ltr"&gt;&amp;lowast; Condiciones de Almacenamiento:&amp;nbsp; Conservar en el envase original bien cerrado a temperatura ambiente. Proteger de los rayos del sol.&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;&amp;lowast; Precauciones: Para uso externo exclusivamente. Mantener fuera del alcance de los ni&amp;ntilde;os. Ante cualquier reacci&amp;oacute;n desfavorable suspender su uso. De persistir consulta a su medico. No aplicar sobre la piel irritada o lastimada.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p dir="ltr" style="line-height:1.38;margin-top:0pt;margin-bottom:0pt;"&gt;&lt;span id="docs-internal-guid-8ca5c0e1-7fff-c123-a27b-7fbf87596aa3"&gt;&lt;span style="font-size: 11pt; font-family: Arial; color: rgb(0, 0, 0); background-color: transparent; font-variant-numeric: normal; font-variant-east-asian: normal; vertical-align: baseline; white-space: pre-wrap;"&gt;Set Babita (colonia y babita).&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p dir="ltr" style="line-height:1.38;margin-top:0pt;margin-bottom:0pt;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr" style="line-height:1.38;margin-top:0pt;margin-bottom:0pt;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr" style="line-height:1.38;margin-top:0pt;margin-bottom:0pt;"&gt;&lt;span id="docs-internal-guid-69ff317a-7fff-219a-5b0b-f7f746e58f0d"&gt;&lt;span style="font-size: 11pt; font-family: Arial; color: rgb(0, 0, 0); font-variant-numeric: normal; font-variant-east-asian: normal; vertical-align: baseline; white-space: pre-wrap;"&gt;Todos nuestros productos son hipolarg&amp;eacute;nicos.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;La caja regalo peluche incluye una colonia, shampoo, toallitas h&amp;uacute;medas y peluche. Viene con una caja regalo de cart&amp;oacute;n, presentado en una bolsa con mo&amp;ntilde;o.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;El peluche es sin elecci&amp;oacute;n, y puede variar el modelo.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Todos nuestros productos son hipoalerg&amp;eacute;nicos.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p dir="ltr"&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1021,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El talco Upalala tiene una fórmula con la mayor calidad y pureza que brinda una agradable sensación de frescura en la piel. Su función más importante es la de proteger la piel del bebé de la posible humedad. \no Modo de uso: Aplicar sobre la piel limpia y seca del bebé con la ayuda de las yemas de los dedos de un adulto, utilizar preferentemente luego del baño o la higiene posterior al recambio del pañal.\no Condiciones de Almacenamiento: Conservar en lugar fresco, seco y protegido de la luz solar directa. Cierre el envase luego de su uso. \no Precauciones: Manténgase fuera del alcance de los niños. El talco no debe inhalarse. Mantener el producto alejado de la boca, nariz y ojos del niño durante su uso. Indicada a partir de los 6 meses de edad.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;El talco Upalala tiene una f&amp;oacute;rmula con la mayor calidad y pureza que brinda una agradable sensaci&amp;oacute;n de frescura en la piel. Su funci&amp;oacute;n m&amp;aacute;s importante es la de proteger la piel del beb&amp;eacute; de la posible humedad.&lt;br /&gt;
+&amp;bull; Modo de uso: Aplicar sobre la piel limpia y seca del beb&amp;eacute; con la ayuda de las yemas de los dedos de un adulto, utilizar preferentemente luego del ba&amp;ntilde;o o la higiene posterior al recambio del pa&amp;ntilde;al.&lt;br /&gt;
+&amp;bull; Condiciones de Almacenamiento: Conservar en lugar fresco, seco y protegido de la luz solar directa. Cierre el envase luego de su uso.&lt;br /&gt;
+&amp;bull; Precauciones: Mant&amp;eacute;ngase fuera del alcance de los ni&amp;ntilde;os. El talco no debe inhalarse. Mantener el producto alejado de la boca, nariz y ojos del ni&amp;ntilde;o durante su uso. Indicada a partir de los 6 meses de edad.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;El set Olaf incluye una remera, ranita y un&amp;nbsp;par de escarpines. Viene presentado en una caja de regalo.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Todos nuestros productos son 100% algod&amp;oacute;n.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Nala incluye un body, un gorro y un par de escarpines. Este conjunto es ideal para los primeros meses de vida del bebé, sobre todo en épocas de calor. Viene presentado en una caja de regalo. \nLos productos textiles son 100% algodón. Color: Natural.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;El Set Nala incluye un body, un gorro y un par de escarpines. Este conjunto es ideal para los primeros meses de vida del beb&amp;eacute;, sobre todo en &amp;eacute;pocas de calor. Viene presentado en una caja de regalo.&lt;br /&gt;
+Los productos textiles son 100% algod&amp;oacute;n. &lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Nala incluye un body, un gorro y un par de escarpines. Este conjunto es ideal para los primeros meses de vida del bebé, sobre todo en épocas de calor. Viene presentado en una caja de regalo. \nLos productos textiles son 100% algodón. Color: Natural.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;Color: Natural.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Pepa incluye un babero, una babita, un gorro y un par de escarpines. Este conjunto es ideal para complementar como accesorio para los primeros meses de vida del bebé. Viene presentado en una caja de regalo. \nLos productos textiles son realizados 100% de algodón. Color: Natural.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;El Set Pepa incluye un babero, una babita, un gorro y un par de escarpines. Este conjunto es ideal para complementar como accesorio para los primeros meses de vida del beb&amp;eacute;. Viene presentado en una caja de regalo.&lt;br /&gt;
+Los productos textiles son realizados 100% de algod&amp;oacute;n. &lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Pepa incluye un babero, una babita, un gorro y un par de escarpines. Este conjunto es ideal para complementar como accesorio para los primeros meses de vida del bebé. Viene presentado en una caja de regalo. \nLos productos textiles son realizados 100% de algodón. Color: Natural.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;Color: Natural.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p dir="ltr"&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1021,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;Fragancia delicada y refrescante que respeta la sensibilidad del olfato del bebé. Está especialmente desarrollada para perfumar suavemente la piel de bebés y niños. Su aroma dulce brinda un exquisito resultado final. Con pico Vertedor.\no Modo de uso: Luego de la higiene diaria corporal, aplicar sobre brazos y cuello. \no Condiciones de Almacenamiento: Mantenga el producto en envase cerrado, tapado y en posición vertical en lugar fresco, a temperatura ambiente, no exponerse a los rayos del sol.\no Precauciones: Uso externo. Evitar el contacto con los ojos. No ingerir. Manténgase fuera del alcance de los niños.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;Fragancia delicada y refrescante que respeta la sensibilidad del olfato del beb&amp;eacute;. Est&amp;aacute; especialmente desarrollada para perfumar suavemente la piel de beb&amp;eacute;s y ni&amp;ntilde;os. Su aroma dulce brinda un exquisito resultado final. Con pico Vertedor.&lt;br /&gt;
+&amp;bull; Modo de uso: Luego de la higiene diaria corporal, aplicar sobre brazos y cuello.&lt;br /&gt;
+&amp;bull; Condiciones de Almacenamiento: Mantenga el producto en envase cerrado, tapado y en posici&amp;oacute;n vertical en lugar fresco, a temperatura ambiente, no exponerse a los rayos del sol.&lt;br /&gt;
+&amp;bull; Precauciones: Uso externo. Evitar el contacto con los ojos. No ingerir. Mant&amp;eacute;ngase fuera del alcance de los ni&amp;ntilde;os.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p dir="ltr"&gt;El aceite para beb&amp;eacute; Upalala humecta y suaviza la delicada piel del beb&amp;eacute; d&amp;aacute;ndole lubricaci&amp;oacute;n a la misma. Adem&amp;aacute;s, resulta ideal para generar un momento de relajaci&amp;oacute;n y conexi&amp;oacute;n con tu beb&amp;eacute;. Est&amp;aacute; comprobado que los masajes con aceite tienen numerosos beneficios tanto en el v&amp;iacute;nculo afectivo con tu beb&amp;eacute; como en su bienestar y crecimiento.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;&amp;lowast; Modo de uso: Aplicar sobre la piel de tu beb&amp;eacute; realizando un masaje con movimientos circulares suaves en la regi&amp;oacute;n del t&amp;oacute;rax y de la panza.&lt;/p&gt;
+&lt;p dir="ltr"&gt;&amp;lowast; Condiciones de Almacenamiento: Mantenga el producto en envase cerrado, tapado y en posici&amp;oacute;n vertical en lugar fresco, a temperatura ambiente, no exponerse a los rayos del sol.&lt;/p&gt;
+&lt;p dir="ltr"&gt;&amp;lowast; Precauciones: Uso externo. No ingerir. Mantener fuera del alcance de los ni&amp;ntilde;os y las mascotas.&lt;/p&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Incluye:&lt;/p&gt;
+&lt;p&gt;- Ranita&lt;/p&gt;
+&lt;p&gt;- Bata&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Incluye:&lt;/p&gt;
+&lt;p&gt;- Ranita&lt;/p&gt;
+&lt;p&gt;- Bata&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;El color del vivo en la batita&amp;nbsp;es sin elecci&amp;oacute;n.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;El set Perdita incluye un babero, una babita, un gorro, un par de escarpines, un&amp;nbsp;mordillo refrigerante y un&amp;nbsp;perfume de ropa. Viene presentado en una caja de regalo.&amp;nbsp;&lt;/p&gt;
+&lt;div&gt;El color del mordillo es sin elecci&amp;oacute;n.&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;Todos nuestros productos son hipoalerg&amp;eacute;nicos.&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Incluye un peluche elaborado por la ONG &amp;quot;Las Omas&amp;quot;&lt;/p&gt;
+&lt;p&gt;Vienen en 3&amp;nbsp;estampas:&lt;/p&gt;
+&lt;p&gt; Cerdito / Rayado&lt;br /&gt;
+ Cerdito / Animales&lt;br /&gt;
+ Cerdito / Zig-zag&lt;br /&gt;
+&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;-&lt;/p&gt;
+&lt;p&gt;La ONG &amp;quot;Las Omas&amp;quot; naci&amp;oacute; en el 2011 con el fin de ense&amp;ntilde;arle oficios a mujeres que viven en situacion de pobreza y violencia en la zona de Chacras de la Merced. Actualmente se mantienen los programas gracias al aporte voluntario y solidario de la gente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Incluye un peluche elaborado por la ONG &amp;quot;Las Omas&amp;quot;&lt;/p&gt;
+&lt;p&gt;Vienen en 3&amp;nbsp;modelos:&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;
+ Elefante / Rayado&lt;br /&gt;
+ Elefante / Animales&lt;br /&gt;
+ Elefante / Zig-zag (circulos)&lt;/p&gt;
+&lt;p&gt;-&lt;/p&gt;
+&lt;p&gt;La ONG &amp;quot;Las Omas&amp;quot; naci&amp;oacute; en el 2011 con el fin de ense&amp;ntilde;arle oficios a mujeres que viven en situacion de pobreza y violencia en la zona de Chacras de la Merced. Actualmente se mantienen los programas gracias al aporte voluntario y solidario de la gente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Incluye un peluche elaborado por la ONG &amp;quot;Las Omas&amp;quot;&lt;/p&gt;
+&lt;p&gt;Vienen en 3&amp;nbsp;modelos:&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;
+ Jirafa / Rayado&lt;br /&gt;
+ Jirafa / Animales&lt;br /&gt;
+ Jirafa / Zig-zag&lt;/p&gt;
+&lt;p&gt;-&lt;/p&gt;
+&lt;p&gt;La ONG &amp;quot;Las Omas&amp;quot; naci&amp;oacute; en el 2011 con el fin de ense&amp;ntilde;arle oficios a mujeres que viven en situacion de pobreza y violencia en la zona de Chacras de la Merced. Actualmente se mantienen los programas gracias al aporte voluntario y solidario de la gente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Nemo incluye una bata y un pantalón. Este conjunto es ideal para los primeros días de vida del bebé ya que la apertura frontal permite una correcta higiene del ombligo sin necesidad de desvestirlo. Viene presentado en una caja de regalo. \nLos productos textiles son realizados 100% de algodón. Color del pantalón: Blanco con puño de color. Color de la Batita: Estampado de Granja.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;El Set Nemo incluye una bata y un pantal&amp;oacute;n. Este conjunto es ideal para los primeros d&amp;iacute;as de vida del beb&amp;eacute; ya que la apertura frontal permite una correcta higiene del ombligo sin necesidad de desvestirlo. Viene presentado en una caja de regalo.&lt;br /&gt;
+Los productos textiles son realizados 100% de algod&amp;oacute;n. &lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Nemo incluye una bata y un pantalón. Este conjunto es ideal para los primeros días de vida del bebé ya que la apertura frontal permite una correcta higiene del ombligo sin necesidad de desvestirlo. Viene presentado en una caja de regalo. \nLos productos textiles son realizados 100% de algodón. Color del pantalón: Blanco con puño de color. Color de la Batita: Estampado de Granja.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;Color del pantal&amp;oacute;n: Blanco con pu&amp;ntilde;o de color. &lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Nemo incluye una bata y un pantalón. Este conjunto es ideal para los primeros días de vida del bebé ya que la apertura frontal permite una correcta higiene del ombligo sin necesidad de desvestirlo. Viene presentado en una caja de regalo. \nLos productos textiles son realizados 100% de algodón. Color del pantalón: Blanco con puño de color. Color de la Batita: Estampado de Granja.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;Color de la Batita: Estampado de Granja.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Nemo incluye una bata y un pantalón. Este conjunto es ideal para los primeros días de vida del bebé ya que la apertura frontal permite una correcta higiene del ombligo sin necesidad de desvestirlo. Viene presentado en una caja de regalo. \nLos productos textiles son realizados 100% de algodón. Color del pantalón: Blanco a rayas rojas/amarillas. Color de la Batita: Blanca con vivos en rojo/amarillo.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;El Set Nemo incluye una bata y un pantal&amp;oacute;n. Este conjunto es ideal para los primeros d&amp;iacute;as de vida del beb&amp;eacute; ya que la apertura frontal permite una correcta higiene del ombligo sin necesidad de desvestirlo. Viene presentado en una caja de regalo.&lt;br /&gt;
+Los productos textiles son realizados 100% de algod&amp;oacute;n. &lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Nemo incluye una bata y un pantalón. Este conjunto es ideal para los primeros días de vida del bebé ya que la apertura frontal permite una correcta higiene del ombligo sin necesidad de desvestirlo. Viene presentado en una caja de regalo. \nLos productos textiles son realizados 100% de algodón. Color del pantalón: Blanco a rayas rojas/amarillas. Color de la Batita: Blanca con vivos en rojo/amarillo.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;Color del pantal&amp;oacute;n: Blanco a rayas rojas/amarillas. &lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Nemo incluye una bata y un pantalón. Este conjunto es ideal para los primeros días de vida del bebé ya que la apertura frontal permite una correcta higiene del ombligo sin necesidad de desvestirlo. Viene presentado en una caja de regalo. \nLos productos textiles son realizados 100% de algodón. Color del pantalón: Blanco a rayas rojas/amarillas. Color de la Batita: Blanca con vivos en rojo/amarillo.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;Color de la Batita: Blanca con vivos en rojo/amarillo.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Nemo incluye una bata y un pantalón. Este conjunto es ideal para los primeros días de vida del bebé ya que la apertura frontal permite una correcta higiene del ombligo sin necesidad de desvestirlo. Viene presentado en una caja de regalo. \nLos productos textiles son realizados 100% de algodón. Color del pantalón: Blanco con puño de color. Color de la Batita: Estampado de Zoo.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;El Set Nemo incluye una bata y un pantal&amp;oacute;n. Este conjunto es ideal para los primeros d&amp;iacute;as de vida del beb&amp;eacute; ya que la apertura frontal permite una correcta higiene del ombligo sin necesidad de desvestirlo. Viene presentado en una caja de regalo.&lt;br /&gt;
+Los productos textiles son realizados 100% de algod&amp;oacute;n. &lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Nemo incluye una bata y un pantalón. Este conjunto es ideal para los primeros días de vida del bebé ya que la apertura frontal permite una correcta higiene del ombligo sin necesidad de desvestirlo. Viene presentado en una caja de regalo. \nLos productos textiles son realizados 100% de algodón. Color del pantalón: Blanco con puño de color. Color de la Batita: Estampado de Zoo.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;Color del pantal&amp;oacute;n: Blanco con pu&amp;ntilde;o de color. &lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Nemo incluye una bata y un pantalón. Este conjunto es ideal para los primeros días de vida del bebé ya que la apertura frontal permite una correcta higiene del ombligo sin necesidad de desvestirlo. Viene presentado en una caja de regalo. \nLos productos textiles son realizados 100% de algodón. Color del pantalón: Blanco con puño de color. Color de la Batita: Estampado de Zoo.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;Color de la Batita: Estampado de Zoo.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Par de zapatitos de morley y corderito en su interior.&lt;/p&gt;
+&lt;p&gt;Talle &amp;uacute;nico. De 0 a 3 meses.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Par de zapatitos de corderito.&lt;/p&gt;
+&lt;p&gt;Talle &amp;uacute;nico. De 0 a 3 meses.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Par de zapatitos acordonados de cuerina.&lt;/p&gt;
+&lt;p&gt;Talle &amp;uacute;nico. De 0 a 3 meses.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Par de zapatitos tipo alpargatas&amp;nbsp;de cuerina.&lt;/p&gt;
+&lt;p&gt;Talle &amp;uacute;nico. De 0 a 3 meses.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Daisy incluye un gorrito, una remera y un pantalón. Este conjunto es ideal para los primeros meses de vida del bebé y funciona como primera capa de piel para las épocas de frío o como conjunto completo para el verano. Viene presentado en una caja de regalo. \nLos productos textiles son realizados 100% de algodón. Color del pantalón: Blanco. Color del gorro: Blanco. Color de la remera: Estampado de Animalitos.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;El Set Daisy incluye un gorrito, una remera y un pantal&amp;oacute;n. Este conjunto es ideal para los primeros meses de vida del beb&amp;eacute; y funciona como primera capa de piel para las &amp;eacute;pocas de fr&amp;iacute;o o como conjunto completo para el verano. Viene presentado en una caja de regalo.&lt;br /&gt;
+Los productos textiles son realizados 100% de algod&amp;oacute;n. &lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Daisy incluye un gorrito, una remera y un pantalón. Este conjunto es ideal para los primeros meses de vida del bebé y funciona como primera capa de piel para las épocas de frío o como conjunto completo para el verano. Viene presentado en una caja de regalo. \nLos productos textiles son realizados 100% de algodón. Color del pantalón: Blanco. Color del gorro: Blanco. Color de la remera: Estampado de Animalitos.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;Color del pantal&amp;oacute;n: Blanco. &lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Daisy incluye un gorrito, una remera y un pantalón. Este conjunto es ideal para los primeros meses de vida del bebé y funciona como primera capa de piel para las épocas de frío o como conjunto completo para el verano. Viene presentado en una caja de regalo. \nLos productos textiles son realizados 100% de algodón. Color del pantalón: Blanco. Color del gorro: Blanco. Color de la remera: Estampado de Animalitos.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;Color del gorro: Blanco.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:1023,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;4&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:14281427},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:0,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;El Set Daisy incluye un gorrito, una remera y un pantalón. Este conjunto es ideal para los primeros meses de vida del bebé y funciona como primera capa de piel para las épocas de frío o como conjunto completo para el verano. Viene presentado en una caja de regalo. \nLos productos textiles son realizados 100% de algodón. Color del pantalón: Blanco. Color del gorro: Blanco. Color de la remera: Estampado de Animalitos.&amp;quot;}" style="color: rgb(0, 0, 0); font-size: 10pt; font-family: Arial;"&gt;Color de la remera: Estampado de Animalitos.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Higiene Infantil&lt;/p&gt;
+&lt;p&gt;Uso Domestico&lt;/p&gt;
+&lt;p&gt;Uso Cosmetico&lt;/p&gt;
+&lt;p&gt;Uso Medicinal&lt;/p&gt;
+</t>
   </si>
   <si>
     <t>SET_-XB4201.0</t>
@@ -1082,13 +1432,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1122,1294 +1472,1600 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>1594</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>239</v>
+      </c>
+      <c r="L2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3">
-        <v>627</v>
+        <v>782</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>199</v>
+      </c>
+      <c r="K3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4">
-        <v>389</v>
+        <v>485</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>200</v>
+      </c>
+      <c r="K4" t="s">
+        <v>241</v>
+      </c>
+      <c r="L4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5">
-        <v>389</v>
+        <v>485</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>201</v>
+      </c>
+      <c r="K5" t="s">
+        <v>242</v>
+      </c>
+      <c r="L5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" t="s">
+        <v>202</v>
+      </c>
+      <c r="K6" t="s">
+        <v>243</v>
+      </c>
+      <c r="L6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>302</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>782</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" t="s">
         <v>180</v>
       </c>
-      <c r="I6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7">
-        <v>243</v>
-      </c>
-      <c r="D7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8">
-        <v>627</v>
-      </c>
-      <c r="D8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" t="s">
-        <v>177</v>
-      </c>
       <c r="I8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>204</v>
+      </c>
+      <c r="K8" t="s">
+        <v>245</v>
+      </c>
+      <c r="L8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C9">
-        <v>642</v>
+        <v>802</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>205</v>
+      </c>
+      <c r="K9" t="s">
+        <v>246</v>
+      </c>
+      <c r="L9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C10">
-        <v>329</v>
+        <v>411</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>206</v>
+      </c>
+      <c r="K10" t="s">
+        <v>247</v>
+      </c>
+      <c r="L10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C11">
-        <v>642</v>
+        <v>801</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>207</v>
+      </c>
+      <c r="K11" t="s">
+        <v>248</v>
+      </c>
+      <c r="L11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12">
-        <v>2356</v>
+        <v>2945</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="K12" t="s">
+        <v>249</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C13">
-        <v>1425</v>
+        <v>1781</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>209</v>
+      </c>
+      <c r="K13" t="s">
+        <v>250</v>
+      </c>
+      <c r="L13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C14">
-        <v>1271</v>
+        <v>1588</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H14" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>210</v>
+      </c>
+      <c r="K14" t="s">
+        <v>251</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C15">
-        <v>1505</v>
+        <v>1881</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H15" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>211</v>
+      </c>
+      <c r="K15" t="s">
+        <v>252</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C16">
-        <v>1654</v>
+        <v>2068</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>212</v>
+      </c>
+      <c r="K16" t="s">
+        <v>253</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C17">
         <v>1157</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>213</v>
+      </c>
+      <c r="K17" t="s">
+        <v>254</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C18">
         <v>860</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H18" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>214</v>
+      </c>
+      <c r="K18" t="s">
+        <v>255</v>
+      </c>
+      <c r="L18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19">
-        <v>2438</v>
+        <v>3048</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H19" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>215</v>
+      </c>
+      <c r="K19" t="s">
+        <v>256</v>
+      </c>
+      <c r="L19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20">
-        <v>1613</v>
+        <v>2018</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H20" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>216</v>
+      </c>
+      <c r="K20" t="s">
+        <v>257</v>
+      </c>
+      <c r="L20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C21">
-        <v>2191</v>
+        <v>2738</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G21" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>217</v>
+      </c>
+      <c r="K21" t="s">
+        <v>258</v>
+      </c>
+      <c r="L21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C22">
-        <v>2438</v>
+        <v>3048</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s">
+        <v>259</v>
+      </c>
+      <c r="L22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C23">
-        <v>2053</v>
+        <v>2565</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G23" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H23" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I23" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>219</v>
+      </c>
+      <c r="K23" t="s">
+        <v>260</v>
+      </c>
+      <c r="L23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C24">
         <v>1357</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G24" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H24" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I24" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>220</v>
+      </c>
+      <c r="K24" t="s">
+        <v>261</v>
+      </c>
+      <c r="L24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C25">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G25" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H25" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s">
+        <v>262</v>
+      </c>
+      <c r="L25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C26">
-        <v>445</v>
+        <v>556</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F26" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H26" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I26" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="K26" t="s">
+        <v>263</v>
+      </c>
+      <c r="L26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C27">
         <v>642</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G27" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="K27" t="s">
+        <v>264</v>
+      </c>
+      <c r="L27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C28">
-        <v>1800</v>
+        <v>2250</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G28" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H28" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I28" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>223</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C29">
-        <v>442</v>
+        <v>552</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F29" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G29" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H29" t="s">
+        <v>183</v>
+      </c>
+      <c r="I29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>266</v>
+      </c>
+      <c r="L29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30">
+        <v>3261</v>
+      </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" t="s">
+        <v>168</v>
+      </c>
+      <c r="H30" t="s">
+        <v>190</v>
+      </c>
+      <c r="I30" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" t="s">
+        <v>267</v>
+      </c>
+      <c r="L30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31">
+        <v>3099</v>
+      </c>
+      <c r="D31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" t="s">
+        <v>268</v>
+      </c>
+      <c r="L31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32">
+        <v>2446</v>
+      </c>
+      <c r="D32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H32" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" t="s">
+        <v>269</v>
+      </c>
+      <c r="L32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33">
+        <v>782</v>
+      </c>
+      <c r="D33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" t="s">
+        <v>169</v>
+      </c>
+      <c r="H33" t="s">
         <v>180</v>
       </c>
-      <c r="I29" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30">
-        <v>2609</v>
-      </c>
-      <c r="D30" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G30" t="s">
-        <v>165</v>
-      </c>
-      <c r="H30" t="s">
-        <v>187</v>
-      </c>
-      <c r="I30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31">
-        <v>2478</v>
-      </c>
-      <c r="D31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" t="s">
-        <v>140</v>
-      </c>
-      <c r="F31" t="s">
-        <v>160</v>
-      </c>
-      <c r="G31" t="s">
-        <v>165</v>
-      </c>
-      <c r="H31" t="s">
-        <v>187</v>
-      </c>
-      <c r="I31" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32">
-        <v>1956</v>
-      </c>
-      <c r="D32" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" t="s">
-        <v>140</v>
-      </c>
-      <c r="F32" t="s">
-        <v>161</v>
-      </c>
-      <c r="G32" t="s">
-        <v>165</v>
-      </c>
-      <c r="H32" t="s">
-        <v>187</v>
-      </c>
-      <c r="I32" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33">
-        <v>627</v>
-      </c>
-      <c r="D33" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33" t="s">
-        <v>166</v>
-      </c>
-      <c r="H33" t="s">
-        <v>177</v>
-      </c>
       <c r="I33" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>228</v>
+      </c>
+      <c r="K33" t="s">
+        <v>270</v>
+      </c>
+      <c r="L33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C34">
         <v>440</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H34" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>95</v>
+      </c>
+      <c r="K34" t="s">
+        <v>271</v>
+      </c>
+      <c r="L34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C35">
-        <v>2968</v>
+        <v>3710</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G35" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H35" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>229</v>
+      </c>
+      <c r="K35" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C36">
         <v>1646</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G36" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H36" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I36" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J36" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>235</v>
+      </c>
+      <c r="K36" t="s">
+        <v>273</v>
+      </c>
+      <c r="L36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C37">
         <v>1650</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G37" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H37" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>193</v>
+      </c>
+      <c r="K37" t="s">
+        <v>274</v>
+      </c>
+      <c r="L37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C38">
         <v>903</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H38" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>194</v>
+      </c>
+      <c r="K38" t="s">
+        <v>275</v>
+      </c>
+      <c r="L38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C39">
         <v>821</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C40">
         <v>821</v>
       </c>
       <c r="E40" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C41">
         <v>903</v>
       </c>
       <c r="E41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H41" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>195</v>
+      </c>
+      <c r="K41" t="s">
+        <v>276</v>
+      </c>
+      <c r="L41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C42">
         <v>903</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H42" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>196</v>
+      </c>
+      <c r="K42" t="s">
+        <v>277</v>
+      </c>
+      <c r="L42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C43">
         <v>1646</v>
       </c>
       <c r="E43" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G43" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H43" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I43" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J43" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>236</v>
+      </c>
+      <c r="K43" t="s">
+        <v>272</v>
+      </c>
+      <c r="L43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C44">
         <v>1646</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G44" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H44" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I44" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J44" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>236</v>
+      </c>
+      <c r="K44" t="s">
+        <v>278</v>
+      </c>
+      <c r="L44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C45">
         <v>1646</v>
       </c>
       <c r="E45" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G45" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>192</v>
+      </c>
+      <c r="K45" t="s">
+        <v>279</v>
+      </c>
+      <c r="L45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C46">
         <v>1646</v>
       </c>
       <c r="E46" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G46" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H46" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>192</v>
+      </c>
+      <c r="K46" t="s">
+        <v>280</v>
+      </c>
+      <c r="L46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C47">
         <v>658</v>
       </c>
       <c r="E47" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H47" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I47" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J47" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>237</v>
+      </c>
+      <c r="K47" t="s">
+        <v>281</v>
+      </c>
+      <c r="L47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C48">
         <v>658</v>
       </c>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H48" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>197</v>
+      </c>
+      <c r="K48" t="s">
+        <v>282</v>
+      </c>
+      <c r="L48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C49">
         <v>658</v>
       </c>
       <c r="E49" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H49" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>197</v>
+      </c>
+      <c r="K49" t="s">
+        <v>281</v>
+      </c>
+      <c r="L49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C50">
         <v>617</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H50" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>197</v>
+      </c>
+      <c r="K50" t="s">
+        <v>283</v>
+      </c>
+      <c r="L50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C51">
         <v>617</v>
       </c>
       <c r="E51" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51" t="s">
+        <v>197</v>
+      </c>
+      <c r="K51" t="s">
+        <v>284</v>
+      </c>
+      <c r="L51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52">
+        <v>3872</v>
+      </c>
+      <c r="D52" t="s">
         <v>140</v>
       </c>
-      <c r="H51" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52">
-        <v>3098</v>
-      </c>
-      <c r="D52" t="s">
-        <v>138</v>
-      </c>
       <c r="E52" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F52" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G52" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H52" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I52" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J52" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>238</v>
+      </c>
+      <c r="K52" t="s">
+        <v>285</v>
+      </c>
+      <c r="L52" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C53">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="D53" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E53" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F53" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G53" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H53" t="s">
-        <v>195</v>
+        <v>198</v>
+      </c>
+      <c r="K53" t="s">
+        <v>286</v>
+      </c>
+      <c r="L53" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
